--- a/Settlement Requirements Review_DatosPrueba - copia.xlsx
+++ b/Settlement Requirements Review_DatosPrueba - copia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\israe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\israe\Documents\DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B182322-6635-4D42-8E0A-7F56885C3AF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Van to Van Transfers" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="M Returns" sheetId="4" r:id="rId3"/>
     <sheet name="Contingencia Cargas de Almacen" sheetId="20" r:id="rId4"/>
     <sheet name="Transfenrecia entre Vendedores" sheetId="21" r:id="rId5"/>
-    <sheet name="Transf de inv disp A inv Dev Q" sheetId="22" r:id="rId6"/>
+    <sheet name="Q en la Van" sheetId="22" r:id="rId6"/>
     <sheet name="Dev Q y Dev de mercado" sheetId="23" r:id="rId7"/>
     <sheet name="Arqueo de Disponible" sheetId="24" r:id="rId8"/>
     <sheet name="Precargas" sheetId="25" r:id="rId9"/>
@@ -615,7 +616,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -754,7 +755,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -781,7 +782,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1273,10 +1274,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2139,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3014,7 +3015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
@@ -3886,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6573,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6974,10 +6975,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8170,7 +8171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9529,7 +9530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14602,7 +14603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
